--- a/cbrunner/Parameters/BC1ha Raster Variable List.xlsx
+++ b/cbrunner/Parameters/BC1ha Raster Variable List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61394973-91EF-4FD5-A660-780AE3379C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF64FDC-D20D-48B1-9131-B688248D3B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="184">
   <si>
     <t>VEG_COMP_LYR_R1_POLY</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>LINE_7B_DISTURBANCE_HISTORY</t>
+  </si>
+  <si>
+    <t>CLAB_NATIONAL_PARKS</t>
+  </si>
+  <si>
+    <t>ENGLISH_NAME</t>
   </si>
 </sst>
 </file>
@@ -968,24 +974,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="420" topLeftCell="A123" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="636" topLeftCell="A132" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1009,7 +1015,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1053,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1072,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1085,7 +1091,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1110,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1127,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1146,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1164,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1255,7 +1261,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1278,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1295,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1314,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1352,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1371,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1390,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1409,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1443,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1460,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1471,7 +1477,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1494,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1511,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1545,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1562,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1579,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1596,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1631,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1649,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1667,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1678,7 +1684,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1720,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1733,7 +1739,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1752,7 +1758,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1790,7 +1796,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1826,7 +1832,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1843,7 +1849,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
@@ -1860,7 +1866,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -1879,7 +1885,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -1917,7 +1923,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1942,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -1955,7 +1961,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -1972,7 +1978,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
@@ -1991,7 +1997,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
@@ -2010,7 +2016,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -2029,7 +2035,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>45</v>
       </c>
@@ -2048,7 +2054,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2073,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>45</v>
       </c>
@@ -2086,7 +2092,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
@@ -2105,7 +2111,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
@@ -2124,7 +2130,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>45</v>
       </c>
@@ -2162,7 +2168,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
@@ -2181,7 +2187,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>45</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2225,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2244,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2263,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>45</v>
       </c>
@@ -2274,7 +2280,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>45</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +2316,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
@@ -2329,7 +2335,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>45</v>
       </c>
@@ -2348,7 +2354,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2373,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2392,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
@@ -2405,7 +2411,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>45</v>
       </c>
@@ -2424,7 +2430,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +2447,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2466,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>45</v>
       </c>
@@ -2477,7 +2483,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>45</v>
       </c>
@@ -2494,7 +2500,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>45</v>
       </c>
@@ -2511,7 +2517,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>45</v>
       </c>
@@ -2528,7 +2534,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>45</v>
       </c>
@@ -2547,7 +2553,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>45</v>
       </c>
@@ -2564,7 +2570,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>45</v>
       </c>
@@ -2581,7 +2587,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>45</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>45</v>
       </c>
@@ -2619,7 +2625,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>45</v>
       </c>
@@ -2638,7 +2644,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>45</v>
       </c>
@@ -2657,7 +2663,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +2682,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>45</v>
       </c>
@@ -2693,7 +2699,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>45</v>
       </c>
@@ -2710,7 +2716,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>45</v>
       </c>
@@ -2729,7 +2735,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>45</v>
       </c>
@@ -2748,7 +2754,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>45</v>
       </c>
@@ -2767,7 +2773,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>45</v>
       </c>
@@ -2786,7 +2792,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2811,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>45</v>
       </c>
@@ -2822,7 +2828,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>45</v>
       </c>
@@ -2839,7 +2845,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>45</v>
       </c>
@@ -2856,7 +2862,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>45</v>
       </c>
@@ -2873,7 +2879,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>45</v>
       </c>
@@ -2890,7 +2896,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>45</v>
       </c>
@@ -2907,7 +2913,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>45</v>
       </c>
@@ -2924,7 +2930,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -2941,7 +2947,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2964,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
@@ -2975,7 +2981,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>45</v>
       </c>
@@ -2992,7 +2998,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>45</v>
       </c>
@@ -3011,7 +3017,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>45</v>
       </c>
@@ -3030,7 +3036,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>45</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>45</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>45</v>
       </c>
@@ -3097,7 +3103,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>45</v>
       </c>
@@ -3116,7 +3122,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>45</v>
       </c>
@@ -3135,7 +3141,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3158,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>45</v>
       </c>
@@ -3169,7 +3175,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3192,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>45</v>
       </c>
@@ -3205,7 +3211,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>45</v>
       </c>
@@ -3224,7 +3230,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>45</v>
       </c>
@@ -3241,7 +3247,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3266,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>45</v>
       </c>
@@ -3296,7 +3302,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>158</v>
       </c>
@@ -3315,7 +3321,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>158</v>
       </c>
@@ -3334,7 +3340,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
@@ -3351,7 +3357,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>158</v>
       </c>
@@ -3368,7 +3374,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -3387,7 +3393,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>158</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>158</v>
       </c>
@@ -3423,7 +3429,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>158</v>
       </c>
@@ -3440,7 +3446,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>158</v>
       </c>
@@ -3457,7 +3463,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>158</v>
       </c>
@@ -3474,7 +3480,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>158</v>
       </c>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>158</v>
       </c>
@@ -3512,7 +3518,7 @@
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>158</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>158</v>
       </c>
@@ -3548,11 +3554,11 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C142" t="s">
@@ -3566,11 +3572,11 @@
       </c>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C143" t="s">
@@ -3584,7 +3590,7 @@
       </c>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -3603,7 +3609,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -3622,7 +3628,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>143</v>
       </c>
@@ -3641,7 +3647,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -3660,7 +3666,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>143</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
@@ -3698,7 +3704,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3723,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>143</v>
       </c>
@@ -3734,7 +3740,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>143</v>
       </c>
@@ -3751,7 +3757,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>143</v>
       </c>
@@ -3770,7 +3776,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>143</v>
       </c>
@@ -3789,7 +3795,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>143</v>
       </c>
@@ -3808,7 +3814,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>143</v>
       </c>
@@ -3825,7 +3831,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>143</v>
       </c>
@@ -3844,7 +3850,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>143</v>
       </c>
@@ -3863,7 +3869,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>143</v>
       </c>
@@ -3882,7 +3888,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>143</v>
       </c>
@@ -3901,7 +3907,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>143</v>
       </c>
@@ -3920,7 +3926,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>143</v>
       </c>
@@ -3939,15 +3945,15 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>7</v>
@@ -3958,35 +3964,45 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3995,7 +4011,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4004,7 +4020,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4013,7 +4029,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4022,7 +4038,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4031,7 +4047,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4040,7 +4056,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4049,7 +4065,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4058,7 +4074,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4067,7 +4083,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4076,7 +4092,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>

--- a/cbrunner/Parameters/BC1ha Raster Variable List.xlsx
+++ b/cbrunner/Parameters/BC1ha Raster Variable List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF64FDC-D20D-48B1-9131-B688248D3B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427F17DF-0B5A-4F5E-9079-5388AA5043E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,23 +975,23 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="636" topLeftCell="A132" activePane="bottomLeft"/>
+      <pane ySplit="648" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="A103:C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>45</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>45</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>45</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>45</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>45</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>45</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>45</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>45</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>45</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>45</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>45</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>45</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>45</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>45</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>45</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>45</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>45</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>45</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>45</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>45</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>45</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>45</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>45</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>45</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>45</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>45</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>45</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>45</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>45</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>45</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>45</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>45</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>45</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>45</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>45</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>45</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>45</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>45</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>45</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>45</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>45</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>45</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>45</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>45</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>45</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>45</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>45</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>45</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>45</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>45</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>45</v>
       </c>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>158</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>158</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>158</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>158</v>
       </c>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>158</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>158</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>158</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>158</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>158</v>
       </c>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>158</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>158</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>158</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>158</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>158</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>143</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>143</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>143</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>143</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>143</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>143</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>143</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>143</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>143</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>143</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>143</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>143</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>143</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>143</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>143</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>143</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>171</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>171</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4011,7 +4011,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4020,7 +4020,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4029,7 +4029,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4038,7 +4038,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4047,7 +4047,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4056,7 +4056,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4065,7 +4065,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4074,7 +4074,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4083,7 +4083,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4092,7 +4092,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
